--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16620" windowHeight="17220" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1302</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>标记</t>
   </si>
@@ -37,6 +37,42 @@
     <t>区分</t>
   </si>
   <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>明显的</t>
+  </si>
+  <si>
+    <t>distinctive</t>
+  </si>
+  <si>
+    <t>有特色的</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>令人厌恶的</t>
+  </si>
+  <si>
+    <t>distinction</t>
+  </si>
+  <si>
+    <t>区别，特性</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>instinct</t>
+  </si>
+  <si>
+    <t>天性，本能</t>
+  </si>
+  <si>
     <t>quartet</t>
   </si>
   <si>
@@ -437,6 +473,183 @@
   </si>
   <si>
     <t>吸引到我</t>
+  </si>
+  <si>
+    <t>volcanoe</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>crater</t>
+  </si>
+  <si>
+    <t>火山口</t>
+  </si>
+  <si>
+    <t>bulge</t>
+  </si>
+  <si>
+    <t>肿块</t>
+  </si>
+  <si>
+    <t>equator</t>
+  </si>
+  <si>
+    <t>赤道</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>直径</t>
+  </si>
+  <si>
+    <t>collision</t>
+  </si>
+  <si>
+    <t>碰撞</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>斜坡</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>滑动</t>
+  </si>
+  <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>熔岩</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>intermittently</t>
+  </si>
+  <si>
+    <t>间歇地</t>
+  </si>
+  <si>
+    <t>prominent</t>
+  </si>
+  <si>
+    <t>突出的</t>
+  </si>
+  <si>
+    <t>ejecta </t>
+  </si>
+  <si>
+    <t>喷出物</t>
+  </si>
+  <si>
+    <t>eject</t>
+  </si>
+  <si>
+    <t>喷射</t>
+  </si>
+  <si>
+    <t>debris</t>
+  </si>
+  <si>
+    <t>碎片</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>ruins</t>
+  </si>
+  <si>
+    <t>废墟</t>
+  </si>
+  <si>
+    <t>remains</t>
+  </si>
+  <si>
+    <t>残骸</t>
+  </si>
+  <si>
+    <t>lunar</t>
+  </si>
+  <si>
+    <t>月亮的</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>太阳的</t>
+  </si>
+  <si>
+    <t>fairly</t>
+  </si>
+  <si>
+    <t>相当地，公平的</t>
+  </si>
+  <si>
+    <t>firmly</t>
+  </si>
+  <si>
+    <t>坚定地，坚固地</t>
+  </si>
+  <si>
+    <t>counterpart</t>
+  </si>
+  <si>
+    <t>极相像的人，物</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>论述</t>
+  </si>
+  <si>
+    <t>boulder</t>
+  </si>
+  <si>
+    <t>巨大的岩石</t>
+  </si>
+  <si>
+    <t>splash</t>
+  </si>
+  <si>
+    <t>溅</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>流动的</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>液体</t>
+  </si>
+  <si>
+    <t>liquefy</t>
+  </si>
+  <si>
+    <t>液化，溶解</t>
   </si>
 </sst>
 </file>
@@ -444,10 +657,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -531,11 +744,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,8 +791,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,14 +801,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,13 +823,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -600,7 +830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,32 +844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -647,7 +853,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +893,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,157 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,15 +1087,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -894,6 +1098,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,114 +1166,88 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,40 +1262,40 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,10 +1304,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1191,7 +1404,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="139700"/>
@@ -1217,7 +1430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="60045600"/>
+          <a:off x="2425700" y="62179200"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1555,10 +1768,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1295"/>
+  <dimension ref="A1:D1302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
@@ -1596,7 +1809,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5"/>
@@ -1606,7 +1819,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5"/>
@@ -1616,7 +1829,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
@@ -1626,7 +1839,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5"/>
@@ -1666,11 +1879,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1696,7 +1909,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5"/>
@@ -1706,7 +1919,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="5"/>
@@ -1716,11 +1929,11 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1730,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1746,7 +1959,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="5"/>
@@ -1776,7 +1989,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="5"/>
@@ -1786,7 +1999,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="5"/>
@@ -1806,7 +2019,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3"/>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="5"/>
@@ -1836,7 +2049,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="5"/>
@@ -1866,7 +2079,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="5"/>
@@ -1876,7 +2089,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="5"/>
@@ -1886,7 +2099,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="5"/>
@@ -1896,21 +2109,21 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1926,7 +2139,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3"/>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="5"/>
@@ -1936,17 +2149,17 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3"/>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3"/>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="5"/>
@@ -1966,11 +2179,11 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3"/>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1986,7 +2199,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="5"/>
@@ -2000,7 +2213,7 @@
         <v>86</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2010,7 +2223,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2046,7 +2259,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3"/>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="5"/>
@@ -2066,11 +2279,11 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3"/>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2126,7 +2339,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3"/>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="5"/>
@@ -2210,13 +2423,13 @@
         <v>128</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3"/>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C65" s="5"/>
@@ -2264,185 +2477,335 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="1"/>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3"/>
+      <c r="B74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3"/>
+      <c r="B75" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="1"/>
+      <c r="B76" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="1"/>
+      <c r="B77" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="C77" s="9"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="1"/>
+      <c r="B78" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="1"/>
+      <c r="B79" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="1"/>
+      <c r="B80" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="C80" s="9"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="1"/>
+      <c r="B81" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C81" s="9"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="C88" s="9"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C89" s="9"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="C90" s="9"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C91" s="9"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C93" s="9"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C94" s="9"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C95" s="9"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C97" s="9"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C98" s="9"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C99" s="9"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C100" s="9"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C101" s="9"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C102" s="9"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C103" s="9"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C104" s="9"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C105" s="9"/>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="1"/>
@@ -8394,8 +8757,43 @@
       <c r="C1295" s="9"/>
       <c r="D1295" s="1"/>
     </row>
+    <row r="1296" spans="2:4">
+      <c r="B1296" s="1"/>
+      <c r="C1296" s="9"/>
+      <c r="D1296" s="1"/>
+    </row>
+    <row r="1297" spans="2:4">
+      <c r="B1297" s="1"/>
+      <c r="C1297" s="9"/>
+      <c r="D1297" s="1"/>
+    </row>
+    <row r="1298" spans="2:4">
+      <c r="B1298" s="1"/>
+      <c r="C1298" s="9"/>
+      <c r="D1298" s="1"/>
+    </row>
+    <row r="1299" spans="2:4">
+      <c r="B1299" s="1"/>
+      <c r="C1299" s="9"/>
+      <c r="D1299" s="1"/>
+    </row>
+    <row r="1300" spans="2:4">
+      <c r="B1300" s="1"/>
+      <c r="C1300" s="9"/>
+      <c r="D1300" s="1"/>
+    </row>
+    <row r="1301" spans="2:4">
+      <c r="B1301" s="1"/>
+      <c r="C1301" s="9"/>
+      <c r="D1301" s="1"/>
+    </row>
+    <row r="1302" spans="2:4">
+      <c r="B1302" s="1"/>
+      <c r="C1302" s="9"/>
+      <c r="D1302" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1295"/>
+  <autoFilter ref="A1:D1302"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>标记</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>液化，溶解</t>
+  </si>
+  <si>
+    <t>privilege</t>
+  </si>
+  <si>
+    <t>特权</t>
   </si>
 </sst>
 </file>
@@ -657,10 +663,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -723,14 +729,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,40 +804,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,30 +830,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,38 +857,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +881,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,13 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +965,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +1007,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,85 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,8 +1078,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,201 +1167,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,8 +1776,8 @@
   <sheetPr/>
   <dimension ref="A1:D1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
@@ -2808,9 +2814,13 @@
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C106" s="9"/>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14960" tabRatio="500"/>
+    <workbookView windowHeight="15000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>标记</t>
   </si>
@@ -656,6 +656,12 @@
   </si>
   <si>
     <t>特权</t>
+  </si>
+  <si>
+    <t>overwhelm</t>
+  </si>
+  <si>
+    <t>淹没，压倒</t>
   </si>
 </sst>
 </file>
@@ -663,12 +669,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -728,8 +734,16 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,15 +757,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,17 +772,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,6 +792,22 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,33 +821,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,35 +885,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -881,31 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,25 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,43 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,19 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +973,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,13 +1003,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1063,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,8 +1092,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,17 +1146,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,15 +1172,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1152,117 +1186,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,56 +1285,56 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1342,6 +1356,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1436,7 +1453,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="62179200"/>
+          <a:off x="2425700" y="62217300"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1774,13 +1791,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1302"/>
+  <dimension ref="A1:K1302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
@@ -2822,15 +2839,20 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="1"/>
+    <row r="107" ht="27" spans="2:4">
+      <c r="B107" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="C107" s="9"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="2:4">
+      <c r="D107" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
       <c r="B108" s="1"/>
       <c r="C108" s="9"/>
       <c r="D108" s="1"/>
+      <c r="K108" s="1"/>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15000" tabRatio="500"/>
+    <workbookView windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
   <si>
     <t>标记</t>
   </si>
@@ -662,6 +662,30 @@
   </si>
   <si>
     <t>淹没，压倒</t>
+  </si>
+  <si>
+    <t>at stake</t>
+  </si>
+  <si>
+    <t>在危险之中</t>
+  </si>
+  <si>
+    <t>stake</t>
+  </si>
+  <si>
+    <t>堵住，打赌</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>候选人</t>
+  </si>
+  <si>
+    <t>jot</t>
+  </si>
+  <si>
+    <t>记笔记，少量</t>
   </si>
 </sst>
 </file>
@@ -669,8 +693,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -743,21 +767,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,9 +781,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,9 +818,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,9 +841,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,15 +881,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,39 +896,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -901,7 +925,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,55 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1063,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,97 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,15 +1116,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1108,16 +1123,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,6 +1142,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,180 +1196,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1794,7 +1818,7 @@
   <dimension ref="A1:K1302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
@@ -2849,25 +2873,41 @@
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C108" s="9"/>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C109" s="9"/>
-      <c r="D109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C110" s="9"/>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C111" s="9"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
   <si>
     <t>标记</t>
   </si>
@@ -686,6 +686,18 @@
   </si>
   <si>
     <t>记笔记，少量</t>
+  </si>
+  <si>
+    <t>swamp</t>
+  </si>
+  <si>
+    <t>沼泽，陷于沼泽</t>
+  </si>
+  <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>预定</t>
   </si>
 </sst>
 </file>
@@ -694,9 +706,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -767,6 +779,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -781,23 +815,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,16 +830,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,17 +854,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,16 +892,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,24 +916,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -919,7 +931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +955,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,13 +1039,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,43 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,97 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,23 +1128,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,8 +1146,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,17 +1193,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1210,151 +1207,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1817,8 +1829,8 @@
   <sheetPr/>
   <dimension ref="A1:K1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
@@ -2910,14 +2922,22 @@
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C112" s="9"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C113" s="9"/>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1304</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
   <si>
     <t>标记</t>
   </si>
@@ -127,7 +127,7 @@
     <t>无限地</t>
   </si>
   <si>
-    <t>Occasionally</t>
+    <t>occasionally</t>
   </si>
   <si>
     <t>偶尔</t>
@@ -698,6 +698,441 @@
   </si>
   <si>
     <t>预定</t>
+  </si>
+  <si>
+    <t>potable</t>
+  </si>
+  <si>
+    <t>适于饮用的</t>
+  </si>
+  <si>
+    <t>pore</t>
+  </si>
+  <si>
+    <t>气孔 v. 细看 专研</t>
+  </si>
+  <si>
+    <t>fracture</t>
+  </si>
+  <si>
+    <t>骨折</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>缝隙</t>
+  </si>
+  <si>
+    <t>porosity</t>
+  </si>
+  <si>
+    <t>多孔性</t>
+  </si>
+  <si>
+    <t>permeability</t>
+  </si>
+  <si>
+    <t>渗透性</t>
+  </si>
+  <si>
+    <t>aquifer</t>
+  </si>
+  <si>
+    <t>蓄水层</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>水库</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>放置储存</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>称为 叫做</t>
+  </si>
+  <si>
+    <t>intergranular</t>
+  </si>
+  <si>
+    <t>颗粒间的</t>
+  </si>
+  <si>
+    <t>granular</t>
+  </si>
+  <si>
+    <t>颗粒状的</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>谷物</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>排水 耗尽</t>
+  </si>
+  <si>
+    <t>drainage</t>
+  </si>
+  <si>
+    <t>排水系统</t>
+  </si>
+  <si>
+    <t>tortuous</t>
+  </si>
+  <si>
+    <t>扭曲的</t>
+  </si>
+  <si>
+    <t>igneous</t>
+  </si>
+  <si>
+    <t>火的</t>
+  </si>
+  <si>
+    <t>metamorphic</t>
+  </si>
+  <si>
+    <t>变形的 变质的</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>矿物</t>
+  </si>
+  <si>
+    <t>topography</t>
+  </si>
+  <si>
+    <t>地貌 地质</t>
+  </si>
+  <si>
+    <t>intersect</t>
+  </si>
+  <si>
+    <t>相交 交叉 横切 贯穿</t>
+  </si>
+  <si>
+    <t>subsequently</t>
+  </si>
+  <si>
+    <t>随后</t>
+  </si>
+  <si>
+    <t>diverse</t>
+  </si>
+  <si>
+    <t>多种多样的</t>
+  </si>
+  <si>
+    <t>albeit</t>
+  </si>
+  <si>
+    <t>尽管</t>
+  </si>
+  <si>
+    <t>frontier</t>
+  </si>
+  <si>
+    <t>边界</t>
+  </si>
+  <si>
+    <t>antelope</t>
+  </si>
+  <si>
+    <t>羚羊</t>
+  </si>
+  <si>
+    <t>susceptible</t>
+  </si>
+  <si>
+    <t>易受影响的</t>
+  </si>
+  <si>
+    <t>sparse</t>
+  </si>
+  <si>
+    <t>稀疏的</t>
+  </si>
+  <si>
+    <t>juxtaposition</t>
+  </si>
+  <si>
+    <t>并列 毗邻</t>
+  </si>
+  <si>
+    <t>archaeologist</t>
+  </si>
+  <si>
+    <t>考古学家</t>
+  </si>
+  <si>
+    <t>knit</t>
+  </si>
+  <si>
+    <t>编织 编织的衣物</t>
+  </si>
+  <si>
+    <t>beast</t>
+  </si>
+  <si>
+    <t>野兽</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>纪律 学科 训练</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>减小</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>角 号角</t>
+  </si>
+  <si>
+    <t>tame</t>
+  </si>
+  <si>
+    <t>驯服 平淡的</t>
+  </si>
+  <si>
+    <t>unsophisticated</t>
+  </si>
+  <si>
+    <t>单纯的 简单的</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>分配分布</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t>贡献</t>
+  </si>
+  <si>
+    <t>pastoral</t>
+  </si>
+  <si>
+    <t>田园的 乡村的 牧师的 牧人的</t>
+  </si>
+  <si>
+    <t>graze</t>
+  </si>
+  <si>
+    <t>放牧</t>
+  </si>
+  <si>
+    <t>deteriorate</t>
+  </si>
+  <si>
+    <t>恶化</t>
+  </si>
+  <si>
+    <t>vanish</t>
+  </si>
+  <si>
+    <t>消失</t>
+  </si>
+  <si>
+    <t>fatal</t>
+  </si>
+  <si>
+    <t>致命的</t>
+  </si>
+  <si>
+    <t>millet</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t>高粱</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>地中海的</t>
+  </si>
+  <si>
+    <t>bark</t>
+  </si>
+  <si>
+    <t>犬吠 树皮</t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>气味</t>
+  </si>
+  <si>
+    <t>induce</t>
+  </si>
+  <si>
+    <t>引起 引导</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>钱 雄鹿</t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>剥落</t>
+  </si>
+  <si>
+    <t>scrape</t>
+  </si>
+  <si>
+    <t>刮擦</t>
+  </si>
+  <si>
+    <t>rub</t>
+  </si>
+  <si>
+    <t>擦除 摩擦的动作 阻碍</t>
+  </si>
+  <si>
+    <t>antler</t>
+  </si>
+  <si>
+    <t>鹿角</t>
+  </si>
+  <si>
+    <t>maple</t>
+  </si>
+  <si>
+    <t>枫树</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>棚 脱落</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>lick</t>
+  </si>
+  <si>
+    <t>舔</t>
+  </si>
+  <si>
+    <t>gland</t>
+  </si>
+  <si>
+    <t>腺</t>
+  </si>
+  <si>
+    <t>odor</t>
+  </si>
+  <si>
+    <t>olfactory</t>
+  </si>
+  <si>
+    <t>嗅觉</t>
+  </si>
+  <si>
+    <t>captive</t>
+  </si>
+  <si>
+    <t>被俘虏的</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>垂直的</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>水平的</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>平的</t>
+  </si>
+  <si>
+    <t>pelage</t>
+  </si>
+  <si>
+    <t>毛皮</t>
+  </si>
+  <si>
+    <t>presumably</t>
+  </si>
+  <si>
+    <t>据推测</t>
+  </si>
+  <si>
+    <t>vicinity</t>
+  </si>
+  <si>
+    <t>邻近</t>
+  </si>
+  <si>
+    <t>trumpet</t>
+  </si>
+  <si>
+    <t>喇叭 吹喇叭</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大型的 </t>
+  </si>
+  <si>
+    <t>elk</t>
+  </si>
+  <si>
+    <t>麋鹿</t>
   </si>
 </sst>
 </file>
@@ -705,12 +1140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,38 +1205,8 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,24 +1220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,31 +1251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,9 +1274,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,7 +1321,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,13 +1364,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +1400,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1454,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,73 +1520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,55 +1538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,8 +1555,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,19 +1588,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,17 +1624,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,170 +1649,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1392,9 +1819,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1449,11 +1873,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1463,7 +1882,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="139700"/>
@@ -1489,7 +1908,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="62217300"/>
+          <a:off x="2728595" y="49053750"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1556,8 +1975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9805670" y="304800"/>
-          <a:ext cx="4806315" cy="2190750"/>
+          <a:off x="11031220" y="238125"/>
+          <a:ext cx="5406390" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,7 +1993,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1821,24 +2240,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K1302"/>
+  <dimension ref="A1:K1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.3481481481481" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.5037037037037" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2875,8 +3295,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" ht="27" spans="2:4">
-      <c r="B107" s="10" t="s">
+    <row r="107" spans="2:4">
+      <c r="B107" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C107" s="9"/>
@@ -2940,379 +3360,679 @@
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C115" s="9"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C116" s="9"/>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C117" s="9"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C118" s="9"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C119" s="9"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="C120" s="9"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="C121" s="9"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="C122" s="9"/>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C123" s="9"/>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C124" s="9"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C127" s="9"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C128" s="9"/>
-      <c r="D128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="C129" s="9"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="C130" s="9"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="C132" s="9"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C133" s="9"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="C134" s="9"/>
-      <c r="D134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="135" spans="2:4">
-      <c r="B135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C135" s="9"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="C137" s="9"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C138" s="9"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C139" s="9"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C140" s="9"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C141" s="9"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C142" s="9"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C143" s="9"/>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C144" s="9"/>
-      <c r="D144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="145" spans="2:4">
-      <c r="B145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="146" spans="2:4">
-      <c r="B146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="147" spans="2:4">
-      <c r="B147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="C147" s="9"/>
-      <c r="D147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="149" spans="2:4">
-      <c r="B149" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="C149" s="9"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="150" spans="2:4">
-      <c r="B150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="C150" s="9"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="151" spans="2:4">
-      <c r="B151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C151" s="9"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="152" spans="2:4">
-      <c r="B152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C152" s="9"/>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="153" spans="2:4">
-      <c r="B153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="C153" s="9"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="154" spans="2:4">
-      <c r="B154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C154" s="9"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="155" spans="2:4">
-      <c r="B155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C155" s="9"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="156" spans="2:4">
-      <c r="B156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="C156" s="9"/>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="157" spans="2:4">
-      <c r="B157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="C157" s="9"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="158" spans="2:4">
-      <c r="B158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C158" s="9"/>
-      <c r="D158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="159" spans="2:4">
-      <c r="B159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C159" s="9"/>
-      <c r="D159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="160" spans="2:4">
-      <c r="B160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C160" s="9"/>
-      <c r="D160" s="1"/>
+      <c r="D160" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="161" spans="2:4">
-      <c r="B161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C161" s="9"/>
-      <c r="D161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="162" spans="2:4">
-      <c r="B162" s="1"/>
+      <c r="B162" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C162" s="9"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="163" spans="2:4">
-      <c r="B163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C163" s="9"/>
-      <c r="D163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="164" spans="2:4">
-      <c r="B164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C164" s="9"/>
-      <c r="D164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C165" s="9"/>
-      <c r="D165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="1"/>
+      <c r="B166" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C166" s="9"/>
-      <c r="D166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="1"/>
+      <c r="B167" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="C167" s="9"/>
-      <c r="D167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C168" s="9"/>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="C169" s="9"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="C170" s="9"/>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C171" s="9"/>
-      <c r="D171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="1"/>
+      <c r="B172" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="C172" s="9"/>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="1"/>
+      <c r="B173" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="C173" s="9"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="1"/>
+      <c r="B174" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="C174" s="9"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="1"/>
+      <c r="B175" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="C175" s="9"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="1"/>
+      <c r="B176" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="C176" s="9"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="1"/>
+      <c r="B177" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="C177" s="9"/>
-      <c r="D177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="1"/>
+      <c r="B178" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="1"/>
+      <c r="B179" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="C179" s="9"/>
-      <c r="D179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="1"/>
+      <c r="B180" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C180" s="9"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="1"/>
+      <c r="B181" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="C181" s="9"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="1"/>
+      <c r="B182" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="C182" s="9"/>
-      <c r="D182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="1"/>
+      <c r="B183" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="C183" s="9"/>
-      <c r="D183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C184" s="9"/>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="1"/>
+      <c r="B185" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="C185" s="9"/>
-      <c r="D185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="C186" s="9"/>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="1"/>
+      <c r="B187" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="C187" s="9"/>
-      <c r="D187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="C188" s="9"/>
-      <c r="D188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" s="1"/>
@@ -8884,8 +9604,18 @@
       <c r="C1302" s="9"/>
       <c r="D1302" s="1"/>
     </row>
+    <row r="1303" spans="2:4">
+      <c r="B1303" s="1"/>
+      <c r="C1303" s="9"/>
+      <c r="D1303" s="1"/>
+    </row>
+    <row r="1304" spans="2:4">
+      <c r="B1304" s="1"/>
+      <c r="C1304" s="9"/>
+      <c r="D1304" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1302"/>
+  <autoFilter ref="A1:D1304"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
   <si>
     <t>标记</t>
   </si>
@@ -1133,6 +1133,108 @@
   </si>
   <si>
     <t>麋鹿</t>
+  </si>
+  <si>
+    <t>pottery</t>
+  </si>
+  <si>
+    <t>陶瓷</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>粉碎</t>
+  </si>
+  <si>
+    <t>purify</t>
+  </si>
+  <si>
+    <t>净化</t>
+  </si>
+  <si>
+    <t>ware</t>
+  </si>
+  <si>
+    <t>器皿 物品</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>坚韧的 艰苦的</t>
+  </si>
+  <si>
+    <t>inevitably</t>
+  </si>
+  <si>
+    <t>不可避免的</t>
+  </si>
+  <si>
+    <t>flaw</t>
+  </si>
+  <si>
+    <t>缺陷 瑕疵</t>
+  </si>
+  <si>
+    <t>aesthetic</t>
+  </si>
+  <si>
+    <t>审美的 美学的</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>令人印象深刻的</t>
+  </si>
+  <si>
+    <t>sheer</t>
+  </si>
+  <si>
+    <t>完全的</t>
+  </si>
+  <si>
+    <t>massive</t>
+  </si>
+  <si>
+    <t>大量的</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>elusive</t>
+  </si>
+  <si>
+    <t>难懂的</t>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
+    <t>构成</t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>源于</t>
+  </si>
+  <si>
+    <t>humble</t>
+  </si>
+  <si>
+    <t>谦逊的 简陋的</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1206,7 +1308,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,24 +1344,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,6 +1362,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1260,7 +1385,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,30 +1416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,29 +1431,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,7 +1460,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,7 +1502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,97 +1532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,7 +1550,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,31 +1598,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,6 +1651,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1576,11 +1687,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1588,8 +1705,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1609,17 +1726,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,166 +1751,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2249,8 +2351,8 @@
   <sheetPr/>
   <dimension ref="A1:K1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -4035,89 +4137,157 @@
       </c>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="C189" s="9"/>
-      <c r="D189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="C190" s="9"/>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="C191" s="9"/>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="1"/>
+      <c r="B192" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="C192" s="9"/>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="C193" s="9"/>
-      <c r="D193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="C194" s="9"/>
-      <c r="D194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="C195" s="9"/>
-      <c r="D195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="C196" s="9"/>
-      <c r="D196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="1"/>
+      <c r="B197" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="C197" s="9"/>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C198" s="9"/>
-      <c r="D198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="C199" s="9"/>
-      <c r="D199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="C200" s="9"/>
-      <c r="D200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="C201" s="9"/>
-      <c r="D201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="1"/>
+      <c r="B202" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C202" s="9"/>
-      <c r="D202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="C203" s="9"/>
-      <c r="D203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="C204" s="9"/>
-      <c r="D204" s="1"/>
+      <c r="D204" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="1"/>
+      <c r="B205" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="C205" s="9"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="206" spans="2:4">
       <c r="B206" s="1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13335" tabRatio="500"/>
+    <workbookView windowWidth="16460" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458">
   <si>
     <t>标记</t>
   </si>
@@ -1235,6 +1235,162 @@
   </si>
   <si>
     <t>谦逊的 简陋的</t>
+  </si>
+  <si>
+    <t>indigenous</t>
+  </si>
+  <si>
+    <t>土生土长的</t>
+  </si>
+  <si>
+    <t>论述 证明</t>
+  </si>
+  <si>
+    <t>exterminate</t>
+  </si>
+  <si>
+    <t>灭绝</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>controversy</t>
+  </si>
+  <si>
+    <t>争论</t>
+  </si>
+  <si>
+    <t>concurrent</t>
+  </si>
+  <si>
+    <t>同时发生</t>
+  </si>
+  <si>
+    <t>overlap</t>
+  </si>
+  <si>
+    <t>重叠</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>底层</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>预防 阻止</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>消除</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>估计</t>
+  </si>
+  <si>
+    <t>harness</t>
+  </si>
+  <si>
+    <t>利用 保护带</t>
+  </si>
+  <si>
+    <t>mill</t>
+  </si>
+  <si>
+    <t>磨坊</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>磨碎</t>
+  </si>
+  <si>
+    <t>grinding</t>
+  </si>
+  <si>
+    <t>令人难以忍受的</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>刀片</t>
+  </si>
+  <si>
+    <t>kinetic</t>
+  </si>
+  <si>
+    <t>运动的</t>
+  </si>
+  <si>
+    <t>pessimistic</t>
+  </si>
+  <si>
+    <t>悲观的</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>废弃的</t>
+  </si>
+  <si>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>专利</t>
+  </si>
+  <si>
+    <t>seldom</t>
+  </si>
+  <si>
+    <t>很少的</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>观念 概念</t>
+  </si>
+  <si>
+    <t>相当的 合理的 公正的</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>神经的</t>
+  </si>
+  <si>
+    <t>maze</t>
+  </si>
+  <si>
+    <t>迷宫</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>昏暗的</t>
+  </si>
+  <si>
+    <t>cerebellum</t>
+  </si>
+  <si>
+    <t>小脑</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1398,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1337,7 +1493,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1352,32 +1540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1385,22 +1549,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,16 +1571,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,14 +1601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1466,7 +1622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,7 +1634,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,31 +1706,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,109 +1796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,6 +1828,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1687,26 +1858,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1726,17 +1888,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1754,124 +1910,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1880,16 +2036,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1975,6 +2131,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2010,7 +2171,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2728595" y="49053750"/>
+          <a:off x="2425700" y="62788800"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2077,8 +2238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11031220" y="238125"/>
-          <a:ext cx="5406390" cy="1724025"/>
+          <a:off x="9805670" y="304800"/>
+          <a:ext cx="4806315" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2095,7 +2256,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2342,7 +2503,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2351,16 +2511,16 @@
   <sheetPr/>
   <dimension ref="A1:K1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.3481481481481" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.5037037037037" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4290,139 +4450,247 @@
       </c>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="C206" s="9"/>
-      <c r="D206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="1"/>
+      <c r="B207" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C207" s="9"/>
-      <c r="D207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="C208" s="9"/>
-      <c r="D208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="C209" s="9"/>
-      <c r="D209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="C210" s="9"/>
-      <c r="D210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="C211" s="9"/>
-      <c r="D211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="1"/>
+      <c r="B212" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="C212" s="9"/>
-      <c r="D212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="C213" s="9"/>
-      <c r="D213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="C214" s="9"/>
-      <c r="D214" s="1"/>
+      <c r="D214" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="C215" s="9"/>
-      <c r="D215" s="1"/>
+      <c r="D215" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="C216" s="9"/>
-      <c r="D216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="1"/>
+      <c r="B217" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="C217" s="9"/>
-      <c r="D217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="1"/>
+      <c r="B218" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="C218" s="9"/>
-      <c r="D218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="C219" s="9"/>
-      <c r="D219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="C220" s="9"/>
-      <c r="D220" s="1"/>
+      <c r="D220" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="C221" s="9"/>
-      <c r="D221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="1"/>
+      <c r="B222" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="C222" s="9"/>
-      <c r="D222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="C223" s="9"/>
-      <c r="D223" s="1"/>
+      <c r="D223" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="C224" s="9"/>
-      <c r="D224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="C225" s="9"/>
-      <c r="D225" s="1"/>
+      <c r="D225" s="1" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="C226" s="9"/>
-      <c r="D226" s="1"/>
+      <c r="D226" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C227" s="9"/>
-      <c r="D227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C228" s="9"/>
-      <c r="D228" s="1"/>
+      <c r="D228" s="1" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="C229" s="9"/>
-      <c r="D229" s="1"/>
+      <c r="D229" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="C230" s="9"/>
-      <c r="D230" s="1"/>
+      <c r="D230" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="1"/>
+      <c r="B231" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="C231" s="9"/>
-      <c r="D231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="1"/>
+      <c r="B232" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="C232" s="9"/>
-      <c r="D232" s="1"/>
+      <c r="D232" s="1" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16460" windowHeight="17220" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537">
   <si>
     <t>标记</t>
   </si>
@@ -1391,6 +1391,243 @@
   </si>
   <si>
     <t>小脑</t>
+  </si>
+  <si>
+    <t>enliven</t>
+  </si>
+  <si>
+    <t>更有生气 更快活</t>
+  </si>
+  <si>
+    <t>increment</t>
+  </si>
+  <si>
+    <t>增量</t>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>模糊的</t>
+  </si>
+  <si>
+    <t>imperfect</t>
+  </si>
+  <si>
+    <t>有缺点的 不完美的</t>
+  </si>
+  <si>
+    <t>paleontologist</t>
+  </si>
+  <si>
+    <t>古生物学者</t>
+  </si>
+  <si>
+    <t>paleo</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>punctuate</t>
+  </si>
+  <si>
+    <t>加标点 打断</t>
+  </si>
+  <si>
+    <t>posit</t>
+  </si>
+  <si>
+    <t>假说</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>爆发</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>过度 过度期</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>片段</t>
+  </si>
+  <si>
+    <t>compel</t>
+  </si>
+  <si>
+    <t>强迫</t>
+  </si>
+  <si>
+    <t>discrete</t>
+  </si>
+  <si>
+    <t>离散的</t>
+  </si>
+  <si>
+    <t>precede</t>
+  </si>
+  <si>
+    <t>先于</t>
+  </si>
+  <si>
+    <t>conceive</t>
+  </si>
+  <si>
+    <t>怀孕 设想</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>contradict</t>
+  </si>
+  <si>
+    <t>与...相矛盾</t>
+  </si>
+  <si>
+    <t>clog</t>
+  </si>
+  <si>
+    <t>堵塞</t>
+  </si>
+  <si>
+    <t>ration</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>rudimentary</t>
+  </si>
+  <si>
+    <t>原始的 基本的</t>
+  </si>
+  <si>
+    <t>discrepancy </t>
+  </si>
+  <si>
+    <t>差异</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>不一致</t>
+  </si>
+  <si>
+    <t>strife</t>
+  </si>
+  <si>
+    <t>冲突</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>招数 度假胜地</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>讽刺的</t>
+  </si>
+  <si>
+    <t>undermine</t>
+  </si>
+  <si>
+    <t>破坏</t>
+  </si>
+  <si>
+    <t>倒塌 奔溃</t>
+  </si>
+  <si>
+    <t>reckon</t>
+  </si>
+  <si>
+    <t>计算 认为</t>
+  </si>
+  <si>
+    <t>secular</t>
+  </si>
+  <si>
+    <t>世俗的</t>
+  </si>
+  <si>
+    <t>municipal</t>
+  </si>
+  <si>
+    <t>市政的</t>
+  </si>
+  <si>
+    <t>conqueror</t>
+  </si>
+  <si>
+    <t>征服者</t>
+  </si>
+  <si>
+    <t>spoil</t>
+  </si>
+  <si>
+    <t>战利品</t>
+  </si>
+  <si>
+    <t>sacred</t>
+  </si>
+  <si>
+    <t>宗教的 神圣的</t>
+  </si>
+  <si>
+    <t>relentless</t>
+  </si>
+  <si>
+    <t>无情的</t>
+  </si>
+  <si>
+    <t>ingenuity</t>
+  </si>
+  <si>
+    <t>独创性 心灵手巧</t>
+  </si>
+  <si>
+    <t>relent</t>
+  </si>
+  <si>
+    <t>宽容的</t>
+  </si>
+  <si>
+    <t>detector</t>
+  </si>
+  <si>
+    <t>探测器</t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>短暂的</t>
+  </si>
+  <si>
+    <t>autonomy</t>
+  </si>
+  <si>
+    <t>自治</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>并列的</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1640,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1461,6 +1698,13 @@
       <color theme="1"/>
       <name val="手札体-简 常规体"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="19.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1910,152 +2154,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2078,6 +2322,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2511,8 +2756,8 @@
   <sheetPr/>
   <dimension ref="A1:K1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
@@ -4692,205 +4937,365 @@
         <v>457</v>
       </c>
     </row>
-    <row r="233" spans="2:4">
-      <c r="B233" s="1"/>
+    <row r="233" ht="30" spans="2:4">
+      <c r="B233" s="10" t="s">
+        <v>458</v>
+      </c>
       <c r="C233" s="9"/>
-      <c r="D233" s="1"/>
+      <c r="D233" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="C234" s="9"/>
-      <c r="D234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="1"/>
+      <c r="B235" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="C235" s="9"/>
-      <c r="D235" s="1"/>
+      <c r="D235" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="1"/>
+      <c r="B236" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="C236" s="9"/>
-      <c r="D236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="1"/>
+      <c r="B237" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="C237" s="9"/>
-      <c r="D237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="1"/>
+      <c r="B238" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="C238" s="9"/>
-      <c r="D238" s="1"/>
+      <c r="D238" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="C239" s="9"/>
-      <c r="D239" s="1"/>
+      <c r="D239" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="C240" s="9"/>
-      <c r="D240" s="1"/>
+      <c r="D240" s="1" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="1"/>
+      <c r="B241" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="C241" s="9"/>
-      <c r="D241" s="1"/>
-    </row>
-    <row r="242" spans="2:4">
-      <c r="B242" s="1"/>
+      <c r="D241" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="242" ht="30" spans="2:4">
+      <c r="B242" s="10" t="s">
+        <v>476</v>
+      </c>
       <c r="C242" s="9"/>
-      <c r="D242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="C243" s="9"/>
-      <c r="D243" s="1"/>
+      <c r="D243" s="1" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="1"/>
+      <c r="B244" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="C244" s="9"/>
-      <c r="D244" s="1"/>
+      <c r="D244" s="1" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="1"/>
+      <c r="B245" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="C245" s="9"/>
-      <c r="D245" s="1"/>
+      <c r="D245" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="C246" s="9"/>
-      <c r="D246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="1"/>
+      <c r="B247" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="C247" s="9"/>
-      <c r="D247" s="1"/>
+      <c r="D247" s="1" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="C248" s="9"/>
-      <c r="D248" s="1"/>
+      <c r="D248" s="1" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="C249" s="9"/>
-      <c r="D249" s="1"/>
+      <c r="D249" s="1" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="1"/>
+      <c r="B250" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="C250" s="9"/>
-      <c r="D250" s="1"/>
+      <c r="D250" s="1" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="1"/>
+      <c r="B251" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="C251" s="9"/>
-      <c r="D251" s="1"/>
+      <c r="D251" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="252" spans="2:4">
-      <c r="B252" s="1"/>
+      <c r="B252" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="C252" s="9"/>
-      <c r="D252" s="1"/>
+      <c r="D252" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="253" spans="2:4">
-      <c r="B253" s="1"/>
+      <c r="B253" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="C253" s="9"/>
-      <c r="D253" s="1"/>
-    </row>
-    <row r="254" spans="2:4">
-      <c r="B254" s="1"/>
+      <c r="D253" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="254" ht="30" spans="2:4">
+      <c r="B254" s="10" t="s">
+        <v>500</v>
+      </c>
       <c r="C254" s="9"/>
-      <c r="D254" s="1"/>
-    </row>
-    <row r="255" spans="2:4">
-      <c r="B255" s="1"/>
+      <c r="D254" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="255" ht="30" spans="2:4">
+      <c r="B255" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="C255" s="9"/>
-      <c r="D255" s="1"/>
-    </row>
-    <row r="256" spans="2:4">
-      <c r="B256" s="1"/>
+      <c r="D255" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="256" ht="30" spans="2:4">
+      <c r="B256" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="C256" s="9"/>
-      <c r="D256" s="1"/>
+      <c r="D256" s="1" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="257" spans="2:4">
-      <c r="B257" s="1"/>
+      <c r="B257" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="C257" s="9"/>
-      <c r="D257" s="1"/>
+      <c r="D257" s="1" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="258" spans="2:4">
-      <c r="B258" s="1"/>
+      <c r="B258" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="C258" s="9"/>
-      <c r="D258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="259" spans="2:4">
-      <c r="B259" s="1"/>
+      <c r="B259" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C259" s="9"/>
-      <c r="D259" s="1"/>
-    </row>
-    <row r="260" spans="2:4">
-      <c r="B260" s="1"/>
+      <c r="D259" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="260" ht="30" spans="2:4">
+      <c r="B260" s="10" t="s">
+        <v>511</v>
+      </c>
       <c r="C260" s="9"/>
-      <c r="D260" s="1"/>
+      <c r="D260" s="1" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="261" spans="2:4">
-      <c r="B261" s="1"/>
+      <c r="B261" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="C261" s="9"/>
-      <c r="D261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="262" spans="2:4">
-      <c r="B262" s="1"/>
+      <c r="B262" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="C262" s="9"/>
-      <c r="D262" s="1"/>
+      <c r="D262" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="263" spans="2:4">
-      <c r="B263" s="1"/>
+      <c r="B263" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="C263" s="9"/>
-      <c r="D263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="264" spans="2:4">
-      <c r="B264" s="1"/>
+      <c r="B264" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="C264" s="9"/>
-      <c r="D264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="265" spans="2:4">
-      <c r="B265" s="1"/>
+      <c r="B265" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="C265" s="9"/>
-      <c r="D265" s="1"/>
+      <c r="D265" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="266" spans="2:4">
-      <c r="B266" s="1"/>
+      <c r="B266" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="C266" s="9"/>
-      <c r="D266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="267" spans="2:4">
-      <c r="B267" s="1"/>
+      <c r="B267" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="C267" s="9"/>
-      <c r="D267" s="1"/>
-    </row>
-    <row r="268" spans="2:4">
-      <c r="B268" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="268" ht="30" spans="2:4">
+      <c r="B268" s="10" t="s">
+        <v>527</v>
+      </c>
       <c r="C268" s="9"/>
-      <c r="D268" s="1"/>
+      <c r="D268" s="1" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="269" spans="2:4">
-      <c r="B269" s="1"/>
+      <c r="B269" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="C269" s="9"/>
-      <c r="D269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="270" spans="2:4">
-      <c r="B270" s="1"/>
+      <c r="B270" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="C270" s="9"/>
-      <c r="D270" s="1"/>
+      <c r="D270" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="271" spans="2:4">
-      <c r="B271" s="1"/>
+      <c r="B271" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="C271" s="9"/>
-      <c r="D271" s="1"/>
+      <c r="D271" s="1" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="272" spans="2:4">
-      <c r="B272" s="1"/>
+      <c r="B272" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="C272" s="9"/>
-      <c r="D272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="1"/>

--- a/tpo.xlsx
+++ b/tpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587">
   <si>
     <t>标记</t>
   </si>
@@ -1766,6 +1766,18 @@
   </si>
   <si>
     <t>盛行</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>提供</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>补充</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1785,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1813,6 +1825,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <charset val="136"/>
     </font>
     <font>
@@ -1829,6 +1842,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1845,15 +1859,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,32 +1887,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1906,7 +1904,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1921,38 +1966,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,24 +1995,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1997,7 +2011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,7 +2041,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,79 +2071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,13 +2095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2129,19 +2113,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2159,25 +2191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,6 +2202,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2205,45 +2243,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2288,151 +2287,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2513,6 +2527,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2548,7 +2567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2728595" y="49053750"/>
+          <a:off x="2425700" y="62788800"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2615,8 +2634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11031220" y="238125"/>
-          <a:ext cx="5406390" cy="1724025"/>
+          <a:off x="9805670" y="304800"/>
+          <a:ext cx="4806315" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2633,7 +2652,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2880,7 +2899,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2890,15 +2908,15 @@
   <dimension ref="A1:K1304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.3481481481481" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.5037037037037" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.35" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -5646,15 +5664,23 @@
         <v>582</v>
       </c>
     </row>
-    <row r="297" ht="19.5" spans="2:4">
-      <c r="B297" s="10"/>
+    <row r="297" spans="2:4">
+      <c r="B297" s="10" t="s">
+        <v>583</v>
+      </c>
       <c r="C297" s="9"/>
-      <c r="D297" s="1"/>
+      <c r="D297" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="298" spans="2:4">
-      <c r="B298" s="10"/>
+      <c r="B298" s="10" t="s">
+        <v>585</v>
+      </c>
       <c r="C298" s="9"/>
-      <c r="D298" s="1"/>
+      <c r="D298" s="1" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="10"/>
